--- a/salary sheet.xlsx
+++ b/salary sheet.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhaas\OneDrive\Desktop\arya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C58D93B8-BDE0-4BDE-9514-98CF6D5BEB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB56F6F-8814-4D55-9E25-E4D59407DE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2E164C14-BD46-4B74-8E3B-5B99B765913E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="14" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
   <si>
     <t>name</t>
   </si>
@@ -148,6 +153,75 @@
   </si>
   <si>
     <t>Emp id</t>
+  </si>
+  <si>
+    <t>DELHI COMPANY</t>
+  </si>
+  <si>
+    <t>SALARY SLIP FROM MARCH 2024</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>EMP ID</t>
+  </si>
+  <si>
+    <t>DESIGNATION</t>
+  </si>
+  <si>
+    <t>BANK NO.</t>
+  </si>
+  <si>
+    <t>A/C NO.</t>
+  </si>
+  <si>
+    <t>EARNING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BASIC SALARY </t>
+  </si>
+  <si>
+    <t>O.T SALARY</t>
+  </si>
+  <si>
+    <t>DEDUCTION</t>
+  </si>
+  <si>
+    <t>P.F</t>
+  </si>
+  <si>
+    <t>E.S.I</t>
+  </si>
+  <si>
+    <t>GROSS SALARY</t>
+  </si>
+  <si>
+    <t>NET SALARY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL DEDUCTION </t>
+  </si>
+  <si>
+    <t>bank no.</t>
+  </si>
+  <si>
+    <t>a/c no.</t>
+  </si>
+  <si>
+    <t>(All)</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Sum of att. Salary</t>
   </si>
 </sst>
 </file>
@@ -157,7 +231,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#&quot;hrs&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +241,34 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -192,10 +294,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -211,6 +336,4259 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[salary sheet.xlsx]Sheet4!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14902537182852144"/>
+          <c:y val="0.14147710702828814"/>
+          <c:w val="0.62793985126859142"/>
+          <c:h val="0.45606445027704873"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$4:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>17077</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet4!$A$6:$A$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>8500</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3196</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9375</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3563</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3625</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5625</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6625</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7333</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3967</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>7583</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Asst. Manager</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Helper</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Manager</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Staff</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>supervisor</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$6:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>6066.6666666666661</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B296-4CA0-B8A6-56EF14477DFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$C$4:$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20210</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet4!$A$6:$A$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>8500</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3196</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9375</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3563</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3625</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5625</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6625</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7333</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3967</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>7583</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Asst. Manager</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Helper</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Manager</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Staff</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>supervisor</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$6:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="3">
+                  <c:v>14500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B296-4CA0-B8A6-56EF14477DFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$D$4:$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>21167</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet4!$A$6:$A$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>8500</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3196</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9375</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3563</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3625</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5625</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6625</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7333</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3967</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>7583</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Asst. Manager</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Helper</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Manager</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Staff</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>supervisor</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$D$6:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="8">
+                  <c:v>13600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B296-4CA0-B8A6-56EF14477DFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$E$4:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>22713</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet4!$A$6:$A$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>8500</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3196</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9375</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3563</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3625</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5625</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6625</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7333</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3967</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>7583</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Asst. Manager</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Helper</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Manager</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Staff</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>supervisor</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$E$6:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="4">
+                  <c:v>15000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B296-4CA0-B8A6-56EF14477DFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$F$4:$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>34958</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet4!$A$6:$A$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>8500</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3196</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9375</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3563</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3625</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5625</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6625</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7333</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3967</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>7583</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Asst. Manager</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Helper</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Manager</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Staff</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>supervisor</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$F$6:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="5">
+                  <c:v>23333.333333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B296-4CA0-B8A6-56EF14477DFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$G$4:$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>36205</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet4!$A$6:$A$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>8500</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3196</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9375</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3563</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3625</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5625</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6625</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7333</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3967</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>7583</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Asst. Manager</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Helper</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Manager</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Staff</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>supervisor</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$G$6:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="6">
+                  <c:v>26000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B296-4CA0-B8A6-56EF14477DFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$H$4:$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>42553</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet4!$A$6:$A$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>8500</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3196</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9375</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3563</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3625</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5625</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6625</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7333</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3967</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>7583</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Asst. Manager</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Helper</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Manager</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Staff</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>supervisor</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$H$6:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="7">
+                  <c:v>32000.000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B296-4CA0-B8A6-56EF14477DFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$I$4:$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>46483</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet4!$A$6:$A$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>8500</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3196</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9375</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3563</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3625</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5625</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6625</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7333</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3967</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>7583</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Asst. Manager</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Helper</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Manager</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Staff</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>supervisor</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$I$6:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="9">
+                  <c:v>35000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-B296-4CA0-B8A6-56EF14477DFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$J$4:$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50553</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet4!$A$6:$A$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>8500</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3196</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9375</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3563</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3625</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5625</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6625</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7333</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3967</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>7583</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Asst. Manager</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Helper</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Manager</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Staff</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>supervisor</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$J$6:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>37333.333333333328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-B296-4CA0-B8A6-56EF14477DFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$K$4:$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>67055</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet4!$A$6:$A$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>8500</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3196</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9375</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3563</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3625</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5625</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6625</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7333</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3967</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>7583</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Asst. Manager</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Helper</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Manager</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Staff</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>supervisor</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$K$6:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="2">
+                  <c:v>43500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-B296-4CA0-B8A6-56EF14477DFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="2100050383"/>
+        <c:axId val="2100051343"/>
+        <c:axId val="1823737663"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="2100050383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2100051343"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2100051343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2100050383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1823737663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2100051343"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="294">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1031875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1031875</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74F151CA-E4DF-8CFE-954F-537AC2CFCCF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ashok Jha" refreshedDate="45463.751642129631" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{7F1F132B-8935-4786-883F-A39C4E0DDBA9}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:R11" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="18">
+    <cacheField name="Emp id" numFmtId="0">
+      <sharedItems count="10">
+        <s v="es101"/>
+        <s v="es102"/>
+        <s v="es103"/>
+        <s v="es104"/>
+        <s v="es105"/>
+        <s v="es106"/>
+        <s v="es107"/>
+        <s v="es108"/>
+        <s v="es109"/>
+        <s v="es110"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="name" numFmtId="0">
+      <sharedItems count="10">
+        <s v="Anvi "/>
+        <s v="Aadarshini "/>
+        <s v="Aadilakshmi"/>
+        <s v="Aashvi"/>
+        <s v="Aaloka"/>
+        <s v="Aachal"/>
+        <s v="Adya"/>
+        <s v="Atharv"/>
+        <s v="Anvay"/>
+        <s v="Agastya"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Post" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Manager"/>
+        <s v="Asst. Manager"/>
+        <s v="supervisor"/>
+        <s v="Staff"/>
+        <s v="Helper"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="a/c no." numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="124537681" maxValue="124537690"/>
+    </cacheField>
+    <cacheField name="bank no." numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="34537" maxValue="34546"/>
+    </cacheField>
+    <cacheField name="basic salary " numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="13000" maxValue="45000" count="9">
+        <n v="45000"/>
+        <n v="40000"/>
+        <n v="35000"/>
+        <n v="30000"/>
+        <n v="25000"/>
+        <n v="32000"/>
+        <n v="17000"/>
+        <n v="15000"/>
+        <n v="13000"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="att." numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="14" maxValue="30" count="6">
+        <n v="29"/>
+        <n v="28"/>
+        <n v="30"/>
+        <n v="26"/>
+        <n v="24"/>
+        <n v="14"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="att. Salary" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6066.6666666666661" maxValue="43500" count="10">
+        <n v="43500"/>
+        <n v="37333.333333333328"/>
+        <n v="35000"/>
+        <n v="26000"/>
+        <n v="23333.333333333336"/>
+        <n v="32000.000000000004"/>
+        <n v="13600"/>
+        <n v="14500"/>
+        <n v="15000"/>
+        <n v="6066.6666666666661"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="D.A " numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="300" maxValue="300" count="1">
+        <n v="300"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="H.R.A" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2340" maxValue="8100" count="9">
+        <n v="8100"/>
+        <n v="7200"/>
+        <n v="6300"/>
+        <n v="5400"/>
+        <n v="4500"/>
+        <n v="5760"/>
+        <n v="3060"/>
+        <n v="2700"/>
+        <n v="2340"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="C.A" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1000" maxValue="1000" count="1">
+        <n v="1000"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="T.A" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="10000" count="8">
+        <n v="10000"/>
+        <n v="700"/>
+        <n v="500"/>
+        <n v="0"/>
+        <n v="3000"/>
+        <n v="1000"/>
+        <n v="2000"/>
+        <n v="5000"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="O.T in hrs." numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="50" maxValue="59"/>
+    </cacheField>
+    <cacheField name="O.T salary " numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3195.833333333333" maxValue="9375" count="10">
+        <n v="9375"/>
+        <n v="8500"/>
+        <n v="7583.3333333333339"/>
+        <n v="6625"/>
+        <n v="5625"/>
+        <n v="7333.3333333333339"/>
+        <n v="3966.6666666666665"/>
+        <n v="3562.5"/>
+        <n v="3625"/>
+        <n v="3195.833333333333"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Gross salary " numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="17902.5" maxValue="72275"/>
+    </cacheField>
+    <cacheField name="PF" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="727.99999999999989" maxValue="5220"/>
+    </cacheField>
+    <cacheField name="ESI" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="127.5"/>
+    </cacheField>
+    <cacheField name="Net salary" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="17077" maxValue="67055" count="10">
+        <n v="67055"/>
+        <n v="50553.333333333328"/>
+        <n v="46483.333333333336"/>
+        <n v="36205"/>
+        <n v="34958.333333333336"/>
+        <n v="42553.333333333336"/>
+        <n v="21167.166666666668"/>
+        <n v="20210"/>
+        <n v="22712.5"/>
+        <n v="17077"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="10">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="124537681"/>
+    <n v="34537"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="50"/>
+    <x v="0"/>
+    <n v="72275"/>
+    <n v="5220"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="124537682"/>
+    <n v="34538"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="51"/>
+    <x v="1"/>
+    <n v="55033.333333333328"/>
+    <n v="4479.9999999999991"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="124537683"/>
+    <n v="34539"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="52"/>
+    <x v="2"/>
+    <n v="50683.333333333336"/>
+    <n v="4200"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="124537684"/>
+    <n v="34540"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="53"/>
+    <x v="3"/>
+    <n v="39325"/>
+    <n v="3120"/>
+    <n v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="124537685"/>
+    <n v="34541"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="54"/>
+    <x v="4"/>
+    <n v="37758.333333333336"/>
+    <n v="2800"/>
+    <n v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="124537686"/>
+    <n v="34542"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="55"/>
+    <x v="5"/>
+    <n v="46393.333333333336"/>
+    <n v="3840.0000000000005"/>
+    <n v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="124537687"/>
+    <n v="34543"/>
+    <x v="6"/>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="56"/>
+    <x v="6"/>
+    <n v="22926.666666666668"/>
+    <n v="1632"/>
+    <n v="127.5"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="124537688"/>
+    <n v="34544"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="57"/>
+    <x v="7"/>
+    <n v="22062.5"/>
+    <n v="1740"/>
+    <n v="112.5"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="124537689"/>
+    <n v="34545"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="58"/>
+    <x v="8"/>
+    <n v="24625"/>
+    <n v="1800"/>
+    <n v="112.5"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="4"/>
+    <n v="124537690"/>
+    <n v="34546"/>
+    <x v="8"/>
+    <x v="5"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="59"/>
+    <x v="9"/>
+    <n v="17902.5"/>
+    <n v="727.99999999999989"/>
+    <n v="97.5"/>
+    <x v="9"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DA8EA5C1-C392-49F6-86B3-C8AEDE5489A8}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A4:L21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="18">
+    <pivotField multipleItemSelectionAllowed="1" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="11">
+        <item x="5"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="1" showAll="0">
+      <items count="11">
+        <item x="9"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" sortType="ascending">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="9">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="1" showAll="0">
+      <items count="11">
+        <item x="9"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField axis="axisCol" numFmtId="1" showAll="0">
+      <items count="11">
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="13"/>
+  </rowFields>
+  <rowItems count="16">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="17"/>
+  </colFields>
+  <colItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of att. Salary" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="10">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="17" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="17" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="17" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="17" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="17" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="17" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="17" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="17" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="17" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="17" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -509,24 +4887,482 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565ABE04-E3B3-4BDB-AEDB-BCAC9EDB2242}">
+  <dimension ref="A2:L21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="24" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="24" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="23" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="31.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="1">
+        <v>17077</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20210</v>
+      </c>
+      <c r="D5" s="1">
+        <v>21167.166666666668</v>
+      </c>
+      <c r="E5" s="1">
+        <v>22712.5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>34958.333333333336</v>
+      </c>
+      <c r="G5" s="1">
+        <v>36205</v>
+      </c>
+      <c r="H5" s="1">
+        <v>42553.333333333336</v>
+      </c>
+      <c r="I5" s="1">
+        <v>46483.333333333336</v>
+      </c>
+      <c r="J5" s="1">
+        <v>50553.333333333328</v>
+      </c>
+      <c r="K5" s="1">
+        <v>67055</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11">
+        <v>37333.333333333328</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11">
+        <v>37333.333333333328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>8500</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11">
+        <v>37333.333333333328</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11">
+        <v>37333.333333333328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="11">
+        <v>6066.6666666666661</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11">
+        <v>6066.6666666666661</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>3195.833333333333</v>
+      </c>
+      <c r="B9" s="11">
+        <v>6066.6666666666661</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11">
+        <v>6066.6666666666661</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11">
+        <v>43500</v>
+      </c>
+      <c r="L10" s="11">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>9375</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11">
+        <v>43500</v>
+      </c>
+      <c r="L11" s="11">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11">
+        <v>14500</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11">
+        <v>15000</v>
+      </c>
+      <c r="F12" s="11">
+        <v>23333.333333333336</v>
+      </c>
+      <c r="G12" s="11">
+        <v>26000</v>
+      </c>
+      <c r="H12" s="11">
+        <v>32000.000000000004</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11">
+        <v>110833.33333333334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>3562.5</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11">
+        <v>14500</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>3625</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11">
+        <v>15000</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>5625</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11">
+        <v>23333.333333333336</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11">
+        <v>23333.333333333336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>6625</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11">
+        <v>26000</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>7333.3333333333339</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11">
+        <v>32000.000000000004</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11">
+        <v>32000.000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11">
+        <v>13600</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11">
+        <v>35000</v>
+      </c>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11">
+        <v>48600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>3966.6666666666665</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11">
+        <v>13600</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>7583.3333333333339</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11">
+        <v>35000</v>
+      </c>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="11">
+        <v>6066.6666666666661</v>
+      </c>
+      <c r="C21" s="11">
+        <v>14500</v>
+      </c>
+      <c r="D21" s="11">
+        <v>13600</v>
+      </c>
+      <c r="E21" s="11">
+        <v>15000</v>
+      </c>
+      <c r="F21" s="11">
+        <v>23333.333333333336</v>
+      </c>
+      <c r="G21" s="11">
+        <v>26000</v>
+      </c>
+      <c r="H21" s="11">
+        <v>32000.000000000004</v>
+      </c>
+      <c r="I21" s="11">
+        <v>35000</v>
+      </c>
+      <c r="J21" s="11">
+        <v>37333.333333333328</v>
+      </c>
+      <c r="K21" s="11">
+        <v>43500</v>
+      </c>
+      <c r="L21" s="11">
+        <v>246333.33333333334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC90974A-2329-4E50-A868-9E6C0D5D5CD0}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="3" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -537,46 +5373,52 @@
         <v>30</v>
       </c>
       <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>37</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>38</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -587,53 +5429,52 @@
         <v>31</v>
       </c>
       <c r="D2">
+        <v>124537681</v>
+      </c>
+      <c r="E2">
+        <v>34537</v>
+      </c>
+      <c r="F2">
         <v>45000</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>29</v>
       </c>
-      <c r="F2" s="1">
-        <f>D2/30*E2</f>
+      <c r="H2" s="1">
         <v>43500</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>300</v>
       </c>
-      <c r="H2">
-        <f>D2*18%</f>
+      <c r="J2">
         <v>8100</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>1000</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>10000</v>
       </c>
-      <c r="K2" s="2">
+      <c r="M2" s="2">
         <v>50</v>
       </c>
-      <c r="L2" s="1">
-        <f>D2/30/8*K2</f>
+      <c r="N2" s="1">
         <v>9375</v>
       </c>
-      <c r="M2" s="1">
-        <f>F2+G2+H2+I2+J2+L2</f>
+      <c r="O2" s="1">
         <v>72275</v>
       </c>
-      <c r="N2">
-        <f>F2*12%</f>
+      <c r="P2">
         <v>5220</v>
       </c>
-      <c r="O2" s="1">
-        <f>IF(D2&lt;21000,(D2*0.75%),0)</f>
+      <c r="Q2" s="1">
         <v>0</v>
       </c>
-      <c r="P2" s="1">
-        <f>M2-N2-O2</f>
+      <c r="R2" s="1">
         <v>67055</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -644,53 +5485,52 @@
         <v>32</v>
       </c>
       <c r="D3">
+        <v>124537682</v>
+      </c>
+      <c r="E3">
+        <v>34538</v>
+      </c>
+      <c r="F3">
         <v>40000</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>28</v>
       </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F11" si="0">D3/30*E3</f>
+      <c r="H3" s="1">
         <v>37333.333333333328</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>300</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H11" si="1">D3*18%</f>
+      <c r="J3">
         <v>7200</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>1000</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>700</v>
       </c>
-      <c r="K3" s="2">
+      <c r="M3" s="2">
         <v>51</v>
       </c>
-      <c r="L3" s="1">
-        <f t="shared" ref="L3:L11" si="2">D3/30/8*K3</f>
+      <c r="N3" s="1">
         <v>8500</v>
       </c>
-      <c r="M3" s="1">
-        <f t="shared" ref="M3:M11" si="3">F3+G3+H3+I3+J3+L3</f>
+      <c r="O3" s="1">
         <v>55033.333333333328</v>
       </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N11" si="4">F3*12%</f>
+      <c r="P3">
         <v>4479.9999999999991</v>
       </c>
-      <c r="O3" s="1">
-        <f t="shared" ref="O3:O11" si="5">IF(D3&lt;21000,(D3*0.75%),0)</f>
+      <c r="Q3" s="1">
         <v>0</v>
       </c>
-      <c r="P3" s="1">
-        <f t="shared" ref="P3:P11" si="6">M3-N3-O3</f>
+      <c r="R3" s="1">
         <v>50553.333333333328</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -701,53 +5541,52 @@
         <v>33</v>
       </c>
       <c r="D4">
+        <v>124537683</v>
+      </c>
+      <c r="E4">
+        <v>34539</v>
+      </c>
+      <c r="F4">
         <v>35000</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>30</v>
       </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
+      <c r="H4" s="1">
         <v>35000</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>300</v>
       </c>
-      <c r="H4">
-        <f t="shared" si="1"/>
+      <c r="J4">
         <v>6300</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>1000</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>500</v>
       </c>
-      <c r="K4" s="2">
+      <c r="M4" s="2">
         <v>52</v>
       </c>
-      <c r="L4" s="1">
-        <f t="shared" si="2"/>
+      <c r="N4" s="1">
         <v>7583.3333333333339</v>
       </c>
-      <c r="M4" s="1">
-        <f t="shared" si="3"/>
+      <c r="O4" s="1">
         <v>50683.333333333336</v>
       </c>
-      <c r="N4">
-        <f t="shared" si="4"/>
+      <c r="P4">
         <v>4200</v>
       </c>
-      <c r="O4" s="1">
-        <f t="shared" si="5"/>
+      <c r="Q4" s="1">
         <v>0</v>
       </c>
-      <c r="P4" s="1">
-        <f t="shared" si="6"/>
+      <c r="R4" s="1">
         <v>46483.333333333336</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -758,53 +5597,52 @@
         <v>34</v>
       </c>
       <c r="D5">
+        <v>124537684</v>
+      </c>
+      <c r="E5">
+        <v>34540</v>
+      </c>
+      <c r="F5">
         <v>30000</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>26</v>
       </c>
-      <c r="F5" s="1">
-        <f t="shared" si="0"/>
+      <c r="H5" s="1">
         <v>26000</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>300</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
+      <c r="J5">
         <v>5400</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>1000</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>0</v>
       </c>
-      <c r="K5" s="2">
+      <c r="M5" s="2">
         <v>53</v>
       </c>
-      <c r="L5" s="1">
-        <f t="shared" si="2"/>
+      <c r="N5" s="1">
         <v>6625</v>
       </c>
-      <c r="M5" s="1">
-        <f t="shared" si="3"/>
+      <c r="O5" s="1">
         <v>39325</v>
       </c>
-      <c r="N5">
-        <f t="shared" si="4"/>
+      <c r="P5">
         <v>3120</v>
       </c>
-      <c r="O5" s="1">
-        <f t="shared" si="5"/>
+      <c r="Q5" s="1">
         <v>0</v>
       </c>
-      <c r="P5" s="1">
-        <f t="shared" si="6"/>
+      <c r="R5" s="1">
         <v>36205</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -815,53 +5653,52 @@
         <v>34</v>
       </c>
       <c r="D6">
+        <v>124537685</v>
+      </c>
+      <c r="E6">
+        <v>34541</v>
+      </c>
+      <c r="F6">
         <v>25000</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>28</v>
       </c>
-      <c r="F6" s="1">
-        <f t="shared" si="0"/>
+      <c r="H6" s="1">
         <v>23333.333333333336</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>300</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
+      <c r="J6">
         <v>4500</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>1000</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>3000</v>
       </c>
-      <c r="K6" s="2">
+      <c r="M6" s="2">
         <v>54</v>
       </c>
-      <c r="L6" s="1">
-        <f t="shared" si="2"/>
+      <c r="N6" s="1">
         <v>5625</v>
       </c>
-      <c r="M6" s="1">
-        <f t="shared" si="3"/>
+      <c r="O6" s="1">
         <v>37758.333333333336</v>
       </c>
-      <c r="N6">
-        <f t="shared" si="4"/>
+      <c r="P6">
         <v>2800</v>
       </c>
-      <c r="O6" s="1">
-        <f t="shared" si="5"/>
+      <c r="Q6" s="1">
         <v>0</v>
       </c>
-      <c r="P6" s="1">
-        <f t="shared" si="6"/>
+      <c r="R6" s="1">
         <v>34958.333333333336</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -872,53 +5709,52 @@
         <v>34</v>
       </c>
       <c r="D7">
+        <v>124537686</v>
+      </c>
+      <c r="E7">
+        <v>34542</v>
+      </c>
+      <c r="F7">
         <v>32000</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>30</v>
       </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
+      <c r="H7" s="1">
         <v>32000.000000000004</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>300</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
+      <c r="J7">
         <v>5760</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>1000</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>0</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>55</v>
       </c>
-      <c r="L7" s="1">
-        <f t="shared" si="2"/>
+      <c r="N7" s="1">
         <v>7333.3333333333339</v>
       </c>
-      <c r="M7" s="1">
-        <f t="shared" si="3"/>
+      <c r="O7" s="1">
         <v>46393.333333333336</v>
       </c>
-      <c r="N7">
-        <f t="shared" si="4"/>
+      <c r="P7">
         <v>3840.0000000000005</v>
       </c>
-      <c r="O7" s="1">
-        <f t="shared" si="5"/>
+      <c r="Q7" s="1">
         <v>0</v>
       </c>
-      <c r="P7" s="1">
-        <f t="shared" si="6"/>
+      <c r="R7" s="1">
         <v>42553.333333333336</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -929,53 +5765,52 @@
         <v>33</v>
       </c>
       <c r="D8">
+        <v>124537687</v>
+      </c>
+      <c r="E8">
+        <v>34543</v>
+      </c>
+      <c r="F8">
         <v>17000</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>24</v>
       </c>
-      <c r="F8" s="1">
-        <f t="shared" si="0"/>
+      <c r="H8" s="1">
         <v>13600</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>300</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
+      <c r="J8">
         <v>3060</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>1000</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>1000</v>
       </c>
-      <c r="K8" s="2">
+      <c r="M8" s="2">
         <v>56</v>
       </c>
-      <c r="L8" s="1">
-        <f t="shared" si="2"/>
+      <c r="N8" s="1">
         <v>3966.6666666666665</v>
       </c>
-      <c r="M8" s="1">
-        <f t="shared" si="3"/>
+      <c r="O8" s="1">
         <v>22926.666666666668</v>
       </c>
-      <c r="N8">
-        <f t="shared" si="4"/>
+      <c r="P8">
         <v>1632</v>
       </c>
-      <c r="O8" s="1">
-        <f t="shared" si="5"/>
+      <c r="Q8" s="1">
         <v>127.5</v>
       </c>
-      <c r="P8" s="1">
-        <f t="shared" si="6"/>
+      <c r="R8" s="1">
         <v>21167.166666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -986,53 +5821,52 @@
         <v>34</v>
       </c>
       <c r="D9">
+        <v>124537688</v>
+      </c>
+      <c r="E9">
+        <v>34544</v>
+      </c>
+      <c r="F9">
         <v>15000</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>29</v>
       </c>
-      <c r="F9" s="1">
-        <f t="shared" si="0"/>
+      <c r="H9" s="1">
         <v>14500</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>300</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
+      <c r="J9">
         <v>2700</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>1000</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>0</v>
       </c>
-      <c r="K9" s="2">
+      <c r="M9" s="2">
         <v>57</v>
       </c>
-      <c r="L9" s="1">
-        <f t="shared" si="2"/>
+      <c r="N9" s="1">
         <v>3562.5</v>
       </c>
-      <c r="M9" s="1">
-        <f t="shared" si="3"/>
+      <c r="O9" s="1">
         <v>22062.5</v>
       </c>
-      <c r="N9">
-        <f t="shared" si="4"/>
+      <c r="P9">
         <v>1740</v>
       </c>
-      <c r="O9" s="1">
-        <f t="shared" si="5"/>
+      <c r="Q9" s="1">
         <v>112.5</v>
       </c>
-      <c r="P9" s="1">
-        <f t="shared" si="6"/>
+      <c r="R9" s="1">
         <v>20210</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1043,53 +5877,52 @@
         <v>34</v>
       </c>
       <c r="D10">
+        <v>124537689</v>
+      </c>
+      <c r="E10">
+        <v>34545</v>
+      </c>
+      <c r="F10">
         <v>15000</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>30</v>
       </c>
-      <c r="F10" s="1">
-        <f t="shared" si="0"/>
+      <c r="H10" s="1">
         <v>15000</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>300</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
+      <c r="J10">
         <v>2700</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>1000</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>2000</v>
       </c>
-      <c r="K10" s="2">
+      <c r="M10" s="2">
         <v>58</v>
       </c>
-      <c r="L10" s="1">
-        <f t="shared" si="2"/>
+      <c r="N10" s="1">
         <v>3625</v>
       </c>
-      <c r="M10" s="1">
-        <f t="shared" si="3"/>
+      <c r="O10" s="1">
         <v>24625</v>
       </c>
-      <c r="N10">
-        <f t="shared" si="4"/>
+      <c r="P10">
         <v>1800</v>
       </c>
-      <c r="O10" s="1">
-        <f t="shared" si="5"/>
+      <c r="Q10" s="1">
         <v>112.5</v>
       </c>
-      <c r="P10" s="1">
-        <f t="shared" si="6"/>
+      <c r="R10" s="1">
         <v>22712.5</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1100,49 +5933,48 @@
         <v>35</v>
       </c>
       <c r="D11">
+        <v>124537690</v>
+      </c>
+      <c r="E11">
+        <v>34546</v>
+      </c>
+      <c r="F11">
         <v>13000</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>14</v>
       </c>
-      <c r="F11" s="1">
-        <f t="shared" si="0"/>
+      <c r="H11" s="1">
         <v>6066.6666666666661</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>300</v>
       </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
+      <c r="J11">
         <v>2340</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>1000</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>5000</v>
       </c>
-      <c r="K11" s="2">
+      <c r="M11" s="2">
         <v>59</v>
       </c>
-      <c r="L11" s="1">
-        <f t="shared" si="2"/>
+      <c r="N11" s="1">
         <v>3195.833333333333</v>
       </c>
-      <c r="M11" s="1">
-        <f t="shared" si="3"/>
+      <c r="O11" s="1">
         <v>17902.5</v>
       </c>
-      <c r="N11">
-        <f t="shared" si="4"/>
+      <c r="P11">
         <v>727.99999999999989</v>
       </c>
-      <c r="O11" s="1">
-        <f t="shared" si="5"/>
+      <c r="Q11" s="1">
         <v>97.5</v>
       </c>
-      <c r="P11" s="1">
-        <f t="shared" si="6"/>
+      <c r="R11" s="1">
         <v>17077</v>
       </c>
     </row>
@@ -1150,4 +5982,286 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E7E1B1-E2EA-40EA-89AB-C73E6FEFD00D}">
+  <dimension ref="C2:R31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9">
+        <f>VLOOKUP(E9,Sheet1!A1:R11,5,FALSE)</f>
+        <v>34545</v>
+      </c>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="str">
+        <f>VLOOKUP(E9,Sheet1!A1:R11,2,FALSE)</f>
+        <v>Anvay</v>
+      </c>
+      <c r="L10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10">
+        <f>VLOOKUP(E9,Sheet1!A1:R11,4,FALSE)</f>
+        <v>124537689</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="str">
+        <f>VLOOKUP(E9,Sheet1!A1:R11,3,FALSE)</f>
+        <v>Staff</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="G13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15">
+        <f>VLOOKUP(E9,Sheet1!A1:R11,6,FALSE)</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="16" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <f>VLOOKUP(E9,Sheet1!A1:R11,10,FALSE)</f>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <f>VLOOKUP(E9,Sheet1!A1:R11,11,FALSE)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <f>VLOOKUP(E9,Sheet1!A1:R11,12,FALSE)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19">
+        <f>VLOOKUP(E9,Sheet1!A1:R11,14,FALSE)</f>
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="21" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="F21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24">
+        <f>VLOOKUP(E9,Sheet1!A1:R11,16,FALSE)</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="25" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25">
+        <f>VLOOKUP(E9,Sheet1!A1:R11,17,Sheet1!Q2)</f>
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="29" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29">
+        <f>VLOOKUP(E9,Sheet1!A1:R11,15,FALSE)</f>
+        <v>24625</v>
+      </c>
+    </row>
+    <row r="30" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="M30" t="s">
+        <v>56</v>
+      </c>
+      <c r="O30">
+        <f>VLOOKUP(E9,Sheet1!A1:R11,12,FALSE)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="31" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31">
+        <f>VLOOKUP(E9,Sheet1!A1:R11,18,FALSE)</f>
+        <v>22712.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C2:R4"/>
+    <mergeCell ref="D6:P7"/>
+    <mergeCell ref="G13:J14"/>
+    <mergeCell ref="F21:K23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>